--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="24" windowWidth="14340" windowHeight="4512" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="54">
   <si>
     <t>TC</t>
   </si>
@@ -176,12 +181,15 @@
   </si>
   <si>
     <t>Weekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,6 +269,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -308,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,9 +352,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,6 +404,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -551,22 +596,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="40.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -594,7 +639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -608,7 +653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -622,7 +667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -643,23 +688,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="14.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -682,7 +727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -699,7 +744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -716,7 +761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -733,7 +778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -750,7 +795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -767,7 +812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -784,7 +829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -801,7 +846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -818,7 +863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -835,7 +880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -852,7 +897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -876,29 +921,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.21875" customWidth="1"/>
-    <col min="2" max="2" width="35.21875" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="44.109375" customWidth="1"/>
-    <col min="7" max="7" width="42.5546875" customWidth="1"/>
-    <col min="8" max="8" width="36.21875" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="49.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" customWidth="1"/>
+    <col min="7" max="7" width="42.5703125" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>33</v>
       </c>
@@ -939,7 +984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>42</v>
       </c>
@@ -974,7 +1019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>42</v>
       </c>
@@ -1009,7 +1054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>42</v>
       </c>
@@ -1044,7 +1089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>42</v>
       </c>
@@ -1079,7 +1124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>42</v>
       </c>
@@ -1114,7 +1159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
@@ -1149,7 +1194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -1184,7 +1229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>42</v>
       </c>
@@ -1219,7 +1264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>42</v>
       </c>
@@ -1254,7 +1299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>42</v>
       </c>
@@ -1289,7 +1334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>42</v>
       </c>
@@ -1331,29 +1376,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1"/>
-    <col min="7" max="7" width="42.21875" customWidth="1"/>
-    <col min="8" max="8" width="39.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="42.28515625" customWidth="1"/>
+    <col min="8" max="8" width="39.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>33</v>
       </c>
@@ -1397,7 +1442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>42</v>
       </c>
@@ -1420,7 +1465,7 @@
         <v>47</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>49</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="53">
   <si>
     <t>TC</t>
   </si>
@@ -168,9 +168,6 @@
     <t>DO NOT TOUCH - PAYROLL AUTOMATION CHECK</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -183,13 +180,13 @@
     <t>Weekly_Payroll</t>
   </si>
   <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201516\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -596,7 +593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -688,7 +685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -921,11 +918,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +989,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>15</v>
@@ -1007,7 +1004,7 @@
         <v>47</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>44</v>
@@ -1019,7 +1016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>42</v>
       </c>
@@ -1027,7 +1024,7 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
@@ -1042,7 +1039,7 @@
         <v>47</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>44</v>
@@ -1054,7 +1051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>42</v>
       </c>
@@ -1062,7 +1059,7 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>15</v>
@@ -1077,7 +1074,7 @@
         <v>47</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>44</v>
@@ -1089,7 +1086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>42</v>
       </c>
@@ -1097,7 +1094,7 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>15</v>
@@ -1112,7 +1109,7 @@
         <v>47</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>44</v>
@@ -1124,7 +1121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>42</v>
       </c>
@@ -1132,7 +1129,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>15</v>
@@ -1147,7 +1144,7 @@
         <v>47</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>44</v>
@@ -1159,7 +1156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
@@ -1167,7 +1164,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>15</v>
@@ -1182,7 +1179,7 @@
         <v>47</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>44</v>
@@ -1194,7 +1191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -1202,7 +1199,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>15</v>
@@ -1217,7 +1214,7 @@
         <v>47</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>44</v>
@@ -1229,7 +1226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>42</v>
       </c>
@@ -1237,7 +1234,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>15</v>
@@ -1252,7 +1249,7 @@
         <v>47</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>44</v>
@@ -1264,7 +1261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>42</v>
       </c>
@@ -1272,7 +1269,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>15</v>
@@ -1287,7 +1284,7 @@
         <v>47</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>44</v>
@@ -1299,7 +1296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>42</v>
       </c>
@@ -1307,7 +1304,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>15</v>
@@ -1322,7 +1319,7 @@
         <v>47</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>44</v>
@@ -1334,7 +1331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>42</v>
       </c>
@@ -1342,7 +1339,7 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>15</v>
@@ -1357,7 +1354,7 @@
         <v>47</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>44</v>
@@ -1376,10 +1373,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1430,7 +1427,7 @@
         <v>41</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>2</v>
@@ -1450,7 +1447,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>15</v>
@@ -1465,16 +1462,16 @@
         <v>47</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>45</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>5</v>
